--- a/TestData/JTPS-DEVQA/ClearingHouseIda.xlsx
+++ b/TestData/JTPS-DEVQA/ClearingHouseIda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Run_TestCase</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Clearing House ID</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,8 +1068,12 @@
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
         <v>8</v>

--- a/TestData/JTPS-DEVQA/ClearingHouseIda.xlsx
+++ b/TestData/JTPS-DEVQA/ClearingHouseIda.xlsx
@@ -985,7 +985,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>4</v>
@@ -1269,7 +1269,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>4</v>
